--- a/ORG_NATURE.xlsx
+++ b/ORG_NATURE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E5AF0-1C43-49F4-B16C-E0FD1A71EAD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA564A9-CEDD-4530-B755-36E9BF244083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>ORG_NAT_PK</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>เบลเกรด</t>
+  </si>
+  <si>
+    <t>ORG_NAT_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_NAT_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_NAT_STATUS</t>
   </si>
 </sst>
 </file>
@@ -535,20 +544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="A1:C32"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="32.1796875" customWidth="1"/>
+    <col min="2" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +567,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>14501</v>
       </c>
@@ -570,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>14502</v>
       </c>
@@ -581,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>14503</v>
       </c>
@@ -592,7 +610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14504</v>
       </c>
@@ -603,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>14505</v>
       </c>
@@ -614,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>14506</v>
       </c>
@@ -625,7 +643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>14507</v>
       </c>
@@ -636,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>14508</v>
       </c>
@@ -647,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>14509</v>
       </c>
@@ -658,7 +676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>14510</v>
       </c>
@@ -669,7 +687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14511</v>
       </c>
@@ -680,7 +698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14512</v>
       </c>
@@ -691,7 +709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14513</v>
       </c>
@@ -702,7 +720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14514</v>
       </c>
@@ -713,7 +731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14515</v>
       </c>
@@ -724,7 +742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14516</v>
       </c>
@@ -735,7 +753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14517</v>
       </c>
@@ -746,7 +764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14518</v>
       </c>
@@ -757,7 +775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>14519</v>
       </c>
@@ -768,7 +786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>14520</v>
       </c>
@@ -779,7 +797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>14521</v>
       </c>
@@ -790,7 +808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>14522</v>
       </c>
@@ -801,7 +819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>14523</v>
       </c>
@@ -812,7 +830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>14524</v>
       </c>
@@ -823,7 +841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>14525</v>
       </c>
@@ -834,7 +852,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>14526</v>
       </c>
@@ -845,7 +863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14527</v>
       </c>
@@ -856,7 +874,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>14528</v>
       </c>
@@ -867,7 +885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>14529</v>
       </c>
@@ -878,7 +896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>14530</v>
       </c>
@@ -889,7 +907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>14531</v>
       </c>
